--- a/SUBTHEME/telework_pattern_list.xlsx
+++ b/SUBTHEME/telework_pattern_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuto/SUBTHEME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686CF984-84D7-724C-8370-75EFEC2CE7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A724C59-0098-B746-AA79-A0FEFE7C8FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{629CF3A2-DA78-9542-9BEF-171807FA3E18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{629CF3A2-DA78-9542-9BEF-171807FA3E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>パターン2</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +269,140 @@
     <t>不要</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リバースプロキシ方式</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォワーディング方式</t>
+    <rPh sb="0" eb="1">
+      <t>ホウｓキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2フォワーディング方式</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートアクセス端末側構成要素</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能アプリケーション</t>
+    <rPh sb="0" eb="4">
+      <t>ｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートアクセス端末機器</t>
+    <rPh sb="0" eb="7">
+      <t>アクセス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBブラウザ＋モジュール（WEB
+からダウンロード、自動インストール）</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBブラウザ＋モジュール（WEBからダウ
+ンロード、自動インストール）</t>
+    <rPh sb="0" eb="1">
+      <t>ジョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBアプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほとんどのアプリケーションで使用可能</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信中ポート番号が変わるものは使用で
+きない場合あり</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBブラウザが動く端末</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールの仕様によって制限
+利用時に管理者権限が必要</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールの仕様によって制限</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント端末のOSが様々である
+ある程度の種類のアプリケーションを使いたい</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを制限なく使いたい
+使用されるクライアント端末の種類は限られている。</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲンナク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出張先の端末などから簡単に使いたい
+仕様アプリケーションはWEBメールやWEB型グループウェアなどWEBページ中心</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7B4F51-CF48-314E-B55C-019655DB1B65}">
   <dimension ref="C6:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -873,4 +1008,97 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F547B7C-95AD-B44B-931D-DB58F12B2420}">
+  <dimension ref="G8:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:11" ht="17"/>
+    <row r="9" spans="8:11" ht="61" customHeight="1">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11" ht="61" customHeight="1">
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="8:11" ht="42">
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11" ht="42">
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11" ht="85" customHeight="1">
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>